--- a/Result/Primary Dataset Result.xlsx
+++ b/Result/Primary Dataset Result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Classifier</t>
   </si>
@@ -47,13 +47,7 @@
     <t>DT</t>
   </si>
   <si>
-    <t>KN</t>
-  </si>
-  <si>
     <t>KNN</t>
-  </si>
-  <si>
-    <t>GaussianNB</t>
   </si>
   <si>
     <t>GNB</t>
@@ -432,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,28 +471,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7202456549348459</v>
+        <v>0.7163515016685206</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -541,28 +535,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7208333333333334</v>
+        <v>0.8250000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7207897067250091</v>
+        <v>0.8249513753820507</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -570,31 +564,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7208333333333334</v>
+        <v>0.7291666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7207897067250091</v>
+        <v>0.7285965309069399</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.2708333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2791666666666667</v>
+        <v>0.2708333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -602,31 +596,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>0.825</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8250000000000001</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8249513753820507</v>
+        <v>0.7708293546762964</v>
       </c>
       <c r="F6" t="n">
-        <v>0.825</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.825</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="H6" t="n">
-        <v>0.825</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="I6" t="n">
-        <v>0.175</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="J6" t="n">
-        <v>0.175</v>
+        <v>0.2291666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -634,31 +628,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.825</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8250000000000001</v>
+        <v>0.5708333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8249513753820507</v>
+        <v>0.5470453504351809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.825</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>0.825</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.825</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.175</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>0.175</v>
+        <v>0.4291666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -666,31 +660,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7291666666666667</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7285965309069399</v>
+        <v>0.7454754081260105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2708333333333334</v>
+        <v>0.2541666666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2708333333333334</v>
+        <v>0.2541666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -698,31 +692,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.7458333333333335</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7708293546762964</v>
+        <v>0.7450854068360293</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2291666666666666</v>
+        <v>0.2541666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2291666666666666</v>
+        <v>0.2541666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -730,31 +724,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5708333333333334</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5470453504351809</v>
+        <v>0.7690652390699628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4291666666666667</v>
+        <v>0.2291666666666666</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4291666666666667</v>
+        <v>0.2291666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -762,31 +756,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7454754081260105</v>
+        <v>0.7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2541666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2541666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -794,31 +788,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7875000000000001</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7864284343319781</v>
+        <v>0.7076023391812867</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2125</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2125</v>
+        <v>0.2916666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -826,127 +820,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.4958333333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7690652390699628</v>
+        <v>0.4954040763844242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2291666666666666</v>
+        <v>0.5041666666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2291666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7076023391812867</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2916666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5</v>
+        <v>0.5041666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Result/Primary Dataset Result.xlsx
+++ b/Result/Primary Dataset Result.xlsx
@@ -471,28 +471,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7163515016685206</v>
+        <v>0.7032961292681653</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7166666666666667</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.2958333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -695,28 +695,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7458333333333335</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7450854068360293</v>
+        <v>0.7572544642857142</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2541666666666667</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2541666666666667</v>
+        <v>0.2416666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -823,28 +823,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4958333333333334</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4954040763844242</v>
+        <v>0.5132867132867133</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4958333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5041666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
   </sheetData>
